--- a/examples/test/testFiles/TwoRowsNoErrorsNumberFormatsDecimal.xlsx
+++ b/examples/test/testFiles/TwoRowsNoErrorsNumberFormatsDecimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianzeis/DEV/ui5-cc-excelUpload/examples/test/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031C44A-DD44-3E4E-9C29-7EF37D02B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CB39D-BA0E-4D48-937B-B6238B8E6639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="3240" windowWidth="29160" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,10 @@
     <t>UnitPrice[price]</t>
   </si>
   <si>
-    <t>1.000,99</t>
+    <t>1,000.99</t>
   </si>
   <si>
-    <t>1.000</t>
+    <t>1,000</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
